--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/fr/example/ValueSet/ModifiedAdministrativeGender</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/example/ValueSet/ModifiedAdministrativeGender</t>
   </si>
   <si>
     <t>Version</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:18:20+00:00</t>
+    <t>2023-02-21T09:43:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T09:43:54+00:00</t>
+    <t>2023-02-21T09:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/example/ValueSet/ModifiedAdministrativeGender</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/example/ValueSet/ModifiedAdministrativeGender</t>
   </si>
   <si>
     <t>Version</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T09:45:20+00:00</t>
+    <t>2023-02-23T14:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:52:39+00:00</t>
+    <t>2023-02-23T15:30:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:30:58+00:00</t>
+    <t>2023-02-23T15:32:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:32:18+00:00</t>
+    <t>2023-03-17T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:29:45+00:00</t>
+    <t>2023-03-19T15:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/ig/main/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:31:53+00:00</t>
+    <t>2023-03-25T16:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
